--- a/model_performance.xlsx
+++ b/model_performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VivoBook\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VivoBook\Downloads\scania_truck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FD5462B-7A9E-4C23-97B2-C00B92F8B9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26872A35-9384-4701-ADB2-AE046A76A980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="2952" windowWidth="17280" windowHeight="8880" xr2:uid="{6E19115C-60E0-4B89-89A9-BF89A00C4260}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E19115C-60E0-4B89-89A9-BF89A00C4260}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Model</t>
   </si>
@@ -44,15 +44,9 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Recall Positive</t>
-  </si>
-  <si>
     <t>Total Cost</t>
   </si>
   <si>
-    <t>Precision Positive</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -72,6 +66,18 @@
   </si>
   <si>
     <t>KNN</t>
+  </si>
+  <si>
+    <t>Positive Class</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
   </si>
 </sst>
 </file>
@@ -106,12 +112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -141,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -151,6 +163,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3561AC-830F-4664-A906-0B8F1C365D2D}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,41 +501,51 @@
     <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>0.95</v>
@@ -522,16 +556,19 @@
       <c r="E4" s="2">
         <v>0.3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="G4" s="3">
         <v>15150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>0.97</v>
@@ -542,16 +579,19 @@
       <c r="E5" s="2">
         <v>0.41</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G5" s="3">
         <v>18010</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>0.96</v>
@@ -562,16 +602,19 @@
       <c r="E6" s="2">
         <v>0.36</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="G6" s="3">
         <v>32750</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>0.97</v>
@@ -582,42 +625,68 @@
       <c r="E7" s="2">
         <v>0.47</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="G7" s="3">
         <v>27750</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
         <v>0.98</v>
@@ -628,16 +697,19 @@
       <c r="E13" s="2">
         <v>0.48</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="G13" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2">
         <v>0.98</v>
@@ -648,16 +720,19 @@
       <c r="E14" s="2">
         <v>0.59</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="G14" s="3">
         <v>145110</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2">
         <v>0.97</v>
@@ -668,16 +743,19 @@
       <c r="E15" s="2">
         <v>0.4</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="G15" s="3">
         <v>72560</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
         <v>0.98</v>
@@ -688,11 +766,18 @@
       <c r="E16" s="2">
         <v>0.74</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="3">
         <v>136360</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D11:F11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
